--- a/Consumer/Monster Beverage Corporation.xlsx
+++ b/Consumer/Monster Beverage Corporation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7B065A-C26F-1345-938F-5844321AE8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1370AA64-AB67-E247-882D-D76EE01CC5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1010,6 +1010,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1021,12 +1027,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2494,13 +2494,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>54.52</v>
-    <v>40.56</v>
-    <v>0.85629999999999995</v>
-    <v>-0.24</v>
-    <v>-4.5450000000000004E-3</v>
-    <v>-0.34</v>
-    <v>-6.4689999999999999E-3</v>
+    <v>60.465000000000003</v>
+    <v>41.95</v>
+    <v>0.86109999999999998</v>
+    <v>-0.56000000000000005</v>
+    <v>-9.3830000000000007E-3</v>
+    <v>0.02</v>
+    <v>3.3829999999999998E-4</v>
     <v>USD</v>
     <v>Monster Beverage Corporation is a holding company. The Company, through its subsidiaries, develops, markets, sells and distributes energy drink beverages and concentrates on energy drink beverages under various brand names. The Company’s segments include Monster Energy Drinks, which is comprised of its Monster Energy drinks, Reign Total Body Fuel high performance energy drinks, Monster Tour Water and True North Pure Energy Seltzers; Strategic Brands segment, which is comprised of the various energy drink brands; Alcohol Brands segment, which is comprised of the various craft beers and hard seltzers, as well as The Beast Unleashed FMBs, and Other segment, which is comprised of certain products sold by American Fruits and Flavors LLC, a wholly owned subsidiary of the Company, to independent third-party customers. Its brands include Monster Energy Ultra, Java Monster, Juice Monster, Monster Hydro Super Sport, Monster Dragon Tea, Reign Total Body Fuel, True North, Mother, and Predator.</v>
     <v>5296</v>
@@ -2508,25 +2508,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Monster Way, CORONA, CA, 92879-7101 US</v>
-    <v>53.05</v>
+    <v>60.23</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>45022.893366527343</v>
+    <v>45068.996272106247</v>
     <v>0</v>
-    <v>51.29</v>
-    <v>54915670000</v>
+    <v>59.05</v>
+    <v>61881613440</v>
     <v>MONSTER BEVERAGE CORPORATION</v>
     <v>MONSTER BEVERAGE CORPORATION</v>
-    <v>52.36</v>
-    <v>37.471400000000003</v>
-    <v>52.8</v>
-    <v>52.56</v>
-    <v>52.22</v>
-    <v>1044819000</v>
+    <v>60</v>
+    <v>39.327300000000001</v>
+    <v>59.68</v>
+    <v>59.12</v>
+    <v>59.14</v>
+    <v>1046712000</v>
     <v>MNST</v>
     <v>MONSTER BEVERAGE CORPORATION (XNAS:MNST)</v>
-    <v>5512176</v>
-    <v>4161712</v>
+    <v>3980082</v>
+    <v>4263866</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2691,9 +2691,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3114,10 +3114,10 @@
   <dimension ref="A1:AR118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK19" sqref="AK19"/>
+      <selection pane="bottomRight" activeCell="AI133" sqref="AI133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5132,15 +5132,15 @@
       </c>
       <c r="AP16" s="30">
         <f>AQ101/AI3</f>
-        <v>8.7015108420944216</v>
+        <v>9.8052801736636539</v>
       </c>
       <c r="AQ16" s="30">
         <f>AQ101/AI28</f>
-        <v>46.084729746967163</v>
+        <v>51.930485992225734</v>
       </c>
       <c r="AR16" s="31">
         <f>AQ101/AI106</f>
-        <v>61.875835198092652</v>
+        <v>69.724661740547191</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -12448,10 +12448,10 @@
       <c r="AI83" s="1">
         <v>-347712000</v>
       </c>
-      <c r="AP83" s="60" t="s">
+      <c r="AP83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AQ83" s="61"/>
+      <c r="AQ83" s="63"/>
     </row>
     <row r="84" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -12559,10 +12559,10 @@
       <c r="AI84" s="1">
         <v>49765000</v>
       </c>
-      <c r="AP84" s="62" t="s">
+      <c r="AP84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AQ84" s="63"/>
+      <c r="AQ84" s="65"/>
     </row>
     <row r="85" spans="1:43" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13616,10 +13616,10 @@
       <c r="AI93" s="1">
         <v>-566470000</v>
       </c>
-      <c r="AP93" s="62" t="s">
+      <c r="AP93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AQ93" s="63"/>
+      <c r="AQ93" s="65"/>
     </row>
     <row r="94" spans="1:43" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -13845,7 +13845,7 @@
       </c>
       <c r="AQ95" s="39" cm="1">
         <f t="array" ref="AQ95">_FV(A1,"Beta")</f>
-        <v>0.85629999999999995</v>
+        <v>0.86109999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:43" ht="20" x14ac:dyDescent="0.25">
@@ -14072,7 +14072,7 @@
       </c>
       <c r="AQ97" s="37">
         <f>(AQ94)+((AQ95)*(AQ96-AQ94))</f>
-        <v>7.7813715000000006E-2</v>
+        <v>7.8020355000000013E-2</v>
       </c>
     </row>
     <row r="98" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -14181,10 +14181,10 @@
       <c r="AI98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AP98" s="62" t="s">
+      <c r="AP98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AQ98" s="63"/>
+      <c r="AQ98" s="65"/>
     </row>
     <row r="99" spans="1:43" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -14525,7 +14525,7 @@
       </c>
       <c r="AQ101" s="40" cm="1">
         <f t="array" ref="AQ101">_FV(A1,"Market cap",TRUE)</f>
-        <v>54915670000</v>
+        <v>61881613440</v>
       </c>
     </row>
     <row r="102" spans="1:43" ht="20" x14ac:dyDescent="0.25">
@@ -14753,7 +14753,7 @@
       </c>
       <c r="AQ103" s="41">
         <f>AQ99+AQ101</f>
-        <v>54915670000</v>
+        <v>61881613440</v>
       </c>
     </row>
     <row r="104" spans="1:43" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14862,10 +14862,10 @@
       <c r="AI104" s="11">
         <v>1307141000</v>
       </c>
-      <c r="AP104" s="62" t="s">
+      <c r="AP104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AQ104" s="63"/>
+      <c r="AQ104" s="65"/>
     </row>
     <row r="105" spans="1:43" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -15015,7 +15015,7 @@
       </c>
       <c r="AQ105" s="26">
         <f>(AQ100*AQ92)+(AQ102*AQ97)</f>
-        <v>7.7813715000000006E-2</v>
+        <v>7.8020355000000013E-2</v>
       </c>
     </row>
     <row r="106" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -15197,7 +15197,7 @@
       <c r="AM107" s="43"/>
       <c r="AN107" s="46">
         <f>AN106*(1+AQ107)/(AQ108-AQ107)</f>
-        <v>27573200028.17046</v>
+        <v>27465737034.876255</v>
       </c>
       <c r="AO107" s="47" t="s">
         <v>148</v>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="AN108" s="46">
         <f>AN107+AN106</f>
-        <v>28993925031.024887</v>
+        <v>28886462037.730682</v>
       </c>
       <c r="AO108" s="47" t="s">
         <v>144</v>
@@ -15238,14 +15238,14 @@
       </c>
       <c r="AQ108" s="51">
         <f>AQ105</f>
-        <v>7.7813715000000006E-2</v>
+        <v>7.8020355000000013E-2</v>
       </c>
     </row>
     <row r="109" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="AJ109" s="64" t="s">
+      <c r="AJ109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AK109" s="65"/>
+      <c r="AK109" s="61"/>
     </row>
     <row r="110" spans="1:43" ht="20" x14ac:dyDescent="0.25">
       <c r="AJ110" s="52" t="s">
@@ -15253,7 +15253,7 @@
       </c>
       <c r="AK110" s="40">
         <f>NPV(AQ108,AJ108,AK108,AL108,AM108,AN108)</f>
-        <v>23658869718.269661</v>
+        <v>23564158686.02018</v>
       </c>
     </row>
     <row r="111" spans="1:43" ht="20" x14ac:dyDescent="0.25">
@@ -15280,7 +15280,7 @@
       </c>
       <c r="AK113" s="40">
         <f>AK110+AK111-AK112</f>
-        <v>26328324718.269661</v>
+        <v>26233613686.02018</v>
       </c>
     </row>
     <row r="114" spans="36:37" ht="20" x14ac:dyDescent="0.25">
@@ -15298,7 +15298,7 @@
       </c>
       <c r="AK115" s="55">
         <f>AK113/AK114</f>
-        <v>53.060258620026516</v>
+        <v>52.869384649916299</v>
       </c>
     </row>
     <row r="116" spans="36:37" ht="20" x14ac:dyDescent="0.25">
@@ -15307,7 +15307,7 @@
       </c>
       <c r="AK116" s="56" cm="1">
         <f t="array" ref="AK116">_FV(A1,"Price")</f>
-        <v>52.56</v>
+        <v>59.12</v>
       </c>
     </row>
     <row r="117" spans="36:37" ht="20" x14ac:dyDescent="0.25">
@@ -15316,7 +15316,7 @@
       </c>
       <c r="AK117" s="58">
         <f>AK115/AK116-1</f>
-        <v>9.5178580674755153E-3</v>
+        <v>-0.10572759387827635</v>
       </c>
     </row>
     <row r="118" spans="36:37" ht="20" x14ac:dyDescent="0.25">
@@ -15325,7 +15325,7 @@
       </c>
       <c r="AK118" s="59" t="str">
         <f>IF(AK115&gt;AK116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>

--- a/Consumer/Monster Beverage Corporation.xlsx
+++ b/Consumer/Monster Beverage Corporation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1370AA64-AB67-E247-882D-D76EE01CC5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F202F16B-8CA1-6F47-AC4E-F563BDAA9043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2495,12 +2495,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>60.465000000000003</v>
-    <v>41.95</v>
-    <v>0.86109999999999998</v>
-    <v>-0.56000000000000005</v>
-    <v>-9.3830000000000007E-3</v>
-    <v>0.02</v>
-    <v>3.3829999999999998E-4</v>
+    <v>42.805</v>
+    <v>0.85619999999999996</v>
+    <v>-0.74</v>
+    <v>-1.2397E-2</v>
     <v>USD</v>
     <v>Monster Beverage Corporation is a holding company. The Company, through its subsidiaries, develops, markets, sells and distributes energy drink beverages and concentrates on energy drink beverages under various brand names. The Company’s segments include Monster Energy Drinks, which is comprised of its Monster Energy drinks, Reign Total Body Fuel high performance energy drinks, Monster Tour Water and True North Pure Energy Seltzers; Strategic Brands segment, which is comprised of the various energy drink brands; Alcohol Brands segment, which is comprised of the various craft beers and hard seltzers, as well as The Beast Unleashed FMBs, and Other segment, which is comprised of certain products sold by American Fruits and Flavors LLC, a wholly owned subsidiary of the Company, to independent third-party customers. Its brands include Monster Energy Ultra, Java Monster, Juice Monster, Monster Hydro Super Sport, Monster Dragon Tea, Reign Total Body Fuel, True North, Mother, and Predator.</v>
     <v>5296</v>
@@ -2508,25 +2506,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Monster Way, CORONA, CA, 92879-7101 US</v>
-    <v>60.23</v>
+    <v>60.03</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>45068.996272106247</v>
+    <v>45100.782950392968</v>
     <v>0</v>
-    <v>59.05</v>
-    <v>61881613440</v>
+    <v>58.76</v>
+    <v>61703672400</v>
     <v>MONSTER BEVERAGE CORPORATION</v>
     <v>MONSTER BEVERAGE CORPORATION</v>
-    <v>60</v>
-    <v>39.327300000000001</v>
-    <v>59.68</v>
-    <v>59.12</v>
-    <v>59.14</v>
+    <v>59.8</v>
+    <v>39.706499999999998</v>
+    <v>59.69</v>
+    <v>58.95</v>
     <v>1046712000</v>
     <v>MNST</v>
     <v>MONSTER BEVERAGE CORPORATION (XNAS:MNST)</v>
-    <v>3980082</v>
-    <v>4263866</v>
+    <v>3034687</v>
+    <v>4180069</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2558,8 +2555,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2580,7 +2575,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2597,7 +2591,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2608,16 +2602,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2683,19 +2674,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2740,9 +2725,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2750,9 +2732,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3114,10 +3093,10 @@
   <dimension ref="A1:AR118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AF105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI133" sqref="AI133"/>
+      <selection pane="bottomRight" activeCell="AK99" sqref="AK99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5132,15 +5111,15 @@
       </c>
       <c r="AP16" s="30">
         <f>AQ101/AI3</f>
-        <v>9.8052801736636539</v>
+        <v>9.7770850175485862</v>
       </c>
       <c r="AQ16" s="30">
         <f>AQ101/AI28</f>
-        <v>51.930485992225734</v>
+        <v>51.781159493262976</v>
       </c>
       <c r="AR16" s="31">
         <f>AQ101/AI106</f>
-        <v>69.724661740547191</v>
+        <v>69.524167956787167</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -13845,7 +13824,7 @@
       </c>
       <c r="AQ95" s="39" cm="1">
         <f t="array" ref="AQ95">_FV(A1,"Beta")</f>
-        <v>0.86109999999999998</v>
+        <v>0.85619999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:43" ht="20" x14ac:dyDescent="0.25">
@@ -14072,7 +14051,7 @@
       </c>
       <c r="AQ97" s="37">
         <f>(AQ94)+((AQ95)*(AQ96-AQ94))</f>
-        <v>7.8020355000000013E-2</v>
+        <v>7.7809409999999996E-2</v>
       </c>
     </row>
     <row r="98" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -14525,7 +14504,7 @@
       </c>
       <c r="AQ101" s="40" cm="1">
         <f t="array" ref="AQ101">_FV(A1,"Market cap",TRUE)</f>
-        <v>61881613440</v>
+        <v>61703672400</v>
       </c>
     </row>
     <row r="102" spans="1:43" ht="20" x14ac:dyDescent="0.25">
@@ -14753,7 +14732,7 @@
       </c>
       <c r="AQ103" s="41">
         <f>AQ99+AQ101</f>
-        <v>61881613440</v>
+        <v>61703672400</v>
       </c>
     </row>
     <row r="104" spans="1:43" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15015,7 +14994,7 @@
       </c>
       <c r="AQ105" s="26">
         <f>(AQ100*AQ92)+(AQ102*AQ97)</f>
-        <v>7.8020355000000013E-2</v>
+        <v>7.7809409999999996E-2</v>
       </c>
     </row>
     <row r="106" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -15197,7 +15176,7 @@
       <c r="AM107" s="43"/>
       <c r="AN107" s="46">
         <f>AN106*(1+AQ107)/(AQ108-AQ107)</f>
-        <v>27465737034.876255</v>
+        <v>27575447783.373966</v>
       </c>
       <c r="AO107" s="47" t="s">
         <v>148</v>
@@ -15228,7 +15207,7 @@
       </c>
       <c r="AN108" s="46">
         <f>AN107+AN106</f>
-        <v>28886462037.730682</v>
+        <v>28996172786.228394</v>
       </c>
       <c r="AO108" s="47" t="s">
         <v>144</v>
@@ -15238,7 +15217,7 @@
       </c>
       <c r="AQ108" s="51">
         <f>AQ105</f>
-        <v>7.8020355000000013E-2</v>
+        <v>7.7809409999999996E-2</v>
       </c>
     </row>
     <row r="109" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -15253,7 +15232,7 @@
       </c>
       <c r="AK110" s="40">
         <f>NPV(AQ108,AJ108,AK108,AL108,AM108,AN108)</f>
-        <v>23564158686.02018</v>
+        <v>23660850767.023872</v>
       </c>
     </row>
     <row r="111" spans="1:43" ht="20" x14ac:dyDescent="0.25">
@@ -15280,7 +15259,7 @@
       </c>
       <c r="AK113" s="40">
         <f>AK110+AK111-AK112</f>
-        <v>26233613686.02018</v>
+        <v>26330305767.023872</v>
       </c>
     </row>
     <row r="114" spans="36:37" ht="20" x14ac:dyDescent="0.25">
@@ -15298,7 +15277,7 @@
       </c>
       <c r="AK115" s="55">
         <f>AK113/AK114</f>
-        <v>52.869384649916299</v>
+        <v>53.064251086708772</v>
       </c>
     </row>
     <row r="116" spans="36:37" ht="20" x14ac:dyDescent="0.25">
@@ -15307,7 +15286,7 @@
       </c>
       <c r="AK116" s="56" cm="1">
         <f t="array" ref="AK116">_FV(A1,"Price")</f>
-        <v>59.12</v>
+        <v>58.95</v>
       </c>
     </row>
     <row r="117" spans="36:37" ht="20" x14ac:dyDescent="0.25">
@@ -15316,7 +15295,7 @@
       </c>
       <c r="AK117" s="58">
         <f>AK115/AK116-1</f>
-        <v>-0.10572759387827635</v>
+        <v>-9.9843068927756184E-2</v>
       </c>
     </row>
     <row r="118" spans="36:37" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Monster Beverage Corporation.xlsx
+++ b/Consumer/Monster Beverage Corporation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F202F16B-8CA1-6F47-AC4E-F563BDAA9043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11AD847-2093-EC4C-83C8-D225F0AC47D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2496,9 +2496,9 @@
     <v>Powered by Refinitiv</v>
     <v>60.465000000000003</v>
     <v>42.805</v>
-    <v>0.85619999999999996</v>
-    <v>-0.74</v>
-    <v>-1.2397E-2</v>
+    <v>0.83760000000000001</v>
+    <v>0.68</v>
+    <v>1.2246E-2</v>
     <v>USD</v>
     <v>Monster Beverage Corporation is a holding company. The Company, through its subsidiaries, develops, markets, sells and distributes energy drink beverages and concentrates on energy drink beverages under various brand names. The Company’s segments include Monster Energy Drinks, which is comprised of its Monster Energy drinks, Reign Total Body Fuel high performance energy drinks, Monster Tour Water and True North Pure Energy Seltzers; Strategic Brands segment, which is comprised of the various energy drink brands; Alcohol Brands segment, which is comprised of the various craft beers and hard seltzers, as well as The Beast Unleashed FMBs, and Other segment, which is comprised of certain products sold by American Fruits and Flavors LLC, a wholly owned subsidiary of the Company, to independent third-party customers. Its brands include Monster Energy Ultra, Java Monster, Juice Monster, Monster Hydro Super Sport, Monster Dragon Tea, Reign Total Body Fuel, True North, Mother, and Predator.</v>
     <v>5296</v>
@@ -2506,24 +2506,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Monster Way, CORONA, CA, 92879-7101 US</v>
-    <v>60.03</v>
+    <v>56.485999999999997</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>45100.782950392968</v>
+    <v>45119.999366087497</v>
     <v>0</v>
-    <v>58.76</v>
-    <v>61703672400</v>
+    <v>55.71</v>
+    <v>58835681520</v>
     <v>MONSTER BEVERAGE CORPORATION</v>
     <v>MONSTER BEVERAGE CORPORATION</v>
-    <v>59.8</v>
-    <v>39.706499999999998</v>
-    <v>59.69</v>
-    <v>58.95</v>
+    <v>56</v>
+    <v>37.391599999999997</v>
+    <v>55.53</v>
+    <v>56.21</v>
     <v>1046712000</v>
     <v>MNST</v>
     <v>MONSTER BEVERAGE CORPORATION (XNAS:MNST)</v>
-    <v>3034687</v>
-    <v>4180069</v>
+    <v>5525772</v>
+    <v>4206674</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2676,10 +2676,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -3096,7 +3096,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AF87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK99" sqref="AK99"/>
+      <selection pane="bottomRight" activeCell="AM101" sqref="AM101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5111,15 +5111,15 @@
       </c>
       <c r="AP16" s="30">
         <f>AQ101/AI3</f>
-        <v>9.7770850175485862</v>
+        <v>9.3226454425174889</v>
       </c>
       <c r="AQ16" s="30">
         <f>AQ101/AI28</f>
-        <v>51.781159493262976</v>
+        <v>49.374367686451428</v>
       </c>
       <c r="AR16" s="31">
         <f>AQ101/AI106</f>
-        <v>69.524167956787167</v>
+        <v>66.292679912654904</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -13824,7 +13824,7 @@
       </c>
       <c r="AQ95" s="39" cm="1">
         <f t="array" ref="AQ95">_FV(A1,"Beta")</f>
-        <v>0.85619999999999996</v>
+        <v>0.83760000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:43" ht="20" x14ac:dyDescent="0.25">
@@ -14051,7 +14051,7 @@
       </c>
       <c r="AQ97" s="37">
         <f>(AQ94)+((AQ95)*(AQ96-AQ94))</f>
-        <v>7.7809409999999996E-2</v>
+        <v>7.7008679999999996E-2</v>
       </c>
     </row>
     <row r="98" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -14504,7 +14504,7 @@
       </c>
       <c r="AQ101" s="40" cm="1">
         <f t="array" ref="AQ101">_FV(A1,"Market cap",TRUE)</f>
-        <v>61703672400</v>
+        <v>58835681520</v>
       </c>
     </row>
     <row r="102" spans="1:43" ht="20" x14ac:dyDescent="0.25">
@@ -14732,7 +14732,7 @@
       </c>
       <c r="AQ103" s="41">
         <f>AQ99+AQ101</f>
-        <v>61703672400</v>
+        <v>58835681520</v>
       </c>
     </row>
     <row r="104" spans="1:43" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14994,7 +14994,7 @@
       </c>
       <c r="AQ105" s="26">
         <f>(AQ100*AQ92)+(AQ102*AQ97)</f>
-        <v>7.7809409999999996E-2</v>
+        <v>7.7008679999999996E-2</v>
       </c>
     </row>
     <row r="106" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -15176,7 +15176,7 @@
       <c r="AM107" s="43"/>
       <c r="AN107" s="46">
         <f>AN106*(1+AQ107)/(AQ108-AQ107)</f>
-        <v>27575447783.373966</v>
+        <v>28000001690.598316</v>
       </c>
       <c r="AO107" s="47" t="s">
         <v>148</v>
@@ -15207,7 +15207,7 @@
       </c>
       <c r="AN108" s="46">
         <f>AN107+AN106</f>
-        <v>28996172786.228394</v>
+        <v>29420726693.452744</v>
       </c>
       <c r="AO108" s="47" t="s">
         <v>144</v>
@@ -15217,7 +15217,7 @@
       </c>
       <c r="AQ108" s="51">
         <f>AQ105</f>
-        <v>7.7809409999999996E-2</v>
+        <v>7.7008679999999996E-2</v>
       </c>
     </row>
     <row r="109" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -15232,7 +15232,7 @@
       </c>
       <c r="AK110" s="40">
         <f>NPV(AQ108,AJ108,AK108,AL108,AM108,AN108)</f>
-        <v>23660850767.023872</v>
+        <v>24035044278.885227</v>
       </c>
     </row>
     <row r="111" spans="1:43" ht="20" x14ac:dyDescent="0.25">
@@ -15259,7 +15259,7 @@
       </c>
       <c r="AK113" s="40">
         <f>AK110+AK111-AK112</f>
-        <v>26330305767.023872</v>
+        <v>26704499278.885227</v>
       </c>
     </row>
     <row r="114" spans="36:37" ht="20" x14ac:dyDescent="0.25">
@@ -15277,7 +15277,7 @@
       </c>
       <c r="AK115" s="55">
         <f>AK113/AK114</f>
-        <v>53.064251086708772</v>
+        <v>53.81837443962845</v>
       </c>
     </row>
     <row r="116" spans="36:37" ht="20" x14ac:dyDescent="0.25">
@@ -15286,7 +15286,7 @@
       </c>
       <c r="AK116" s="56" cm="1">
         <f t="array" ref="AK116">_FV(A1,"Price")</f>
-        <v>58.95</v>
+        <v>56.21</v>
       </c>
     </row>
     <row r="117" spans="36:37" ht="20" x14ac:dyDescent="0.25">
@@ -15295,7 +15295,7 @@
       </c>
       <c r="AK117" s="58">
         <f>AK115/AK116-1</f>
-        <v>-9.9843068927756184E-2</v>
+        <v>-4.2548044126873408E-2</v>
       </c>
     </row>
     <row r="118" spans="36:37" ht="20" x14ac:dyDescent="0.25">
